--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\seleniumworkspaces\LiveProjects\DataDrivenFramework\src\test\resources\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="5370" activeTab="1"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId2"/>
     <sheet name="OpenAccountTest" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>firstname</t>
   </si>
@@ -98,6 +93,21 @@
   </si>
   <si>
     <t>runmode</t>
+  </si>
+  <si>
+    <t>Prasath</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>A1214</t>
+  </si>
+  <si>
+    <t>Akshita</t>
+  </si>
+  <si>
+    <t>A11</t>
   </si>
 </sst>
 </file>
@@ -407,7 +417,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -462,13 +472,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -518,7 +531,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -552,6 +565,40 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
         <v>19</v>
       </c>
     </row>
